--- a/Shop Files/south_des_moines.xlsx
+++ b/Shop Files/south_des_moines.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/09/2025 07:04 PM</t>
+      <t>06/17/2025 08:14 PM</t>
     </r>
   </si>
   <si>
@@ -1791,7 +1791,7 @@
         <v>1.06</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>14.84</v>
+        <v>8.48</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>1.06</v>
@@ -1806,7 +1806,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -1918,7 +1918,7 @@
         <v>10.33</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>41.32</v>
+        <v>10.33</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>10.33</v>
@@ -1933,7 +1933,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -1959,7 +1959,7 @@
         <v>1.81</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>27.15</v>
+        <v>16.29</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>1.81</v>
@@ -1974,7 +1974,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>27</v>
@@ -2086,7 +2086,7 @@
         <v>11.47</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>34.41</v>
+        <v>0.0</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>11.47</v>
@@ -2101,7 +2101,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>25</v>
@@ -2260,7 +2260,7 @@
         <v>534.99</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>2139.96</v>
+        <v>0.0</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>534.99</v>
@@ -2275,7 +2275,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>44</v>
@@ -2393,7 +2393,7 @@
         <v>0.67</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>9.38</v>
+        <v>8.71</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>0.67</v>
@@ -2408,7 +2408,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>31</v>
@@ -2528,7 +2528,7 @@
         <v>0.6</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>0.6</v>
@@ -2543,7 +2543,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>31</v>
@@ -2704,7 +2704,7 @@
         <v>32.07</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>64.14</v>
+        <v>320.7</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>32.07</v>
@@ -2719,7 +2719,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>31</v>
@@ -2794,7 +2794,7 @@
         <v>1.11</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>18.87</v>
+        <v>35.52</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>1.11</v>
@@ -2809,7 +2809,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>90</v>
@@ -3015,7 +3015,7 @@
         <v>2.04</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>30.6</v>
+        <v>24.48</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>2.04</v>
@@ -3030,7 +3030,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>107</v>
@@ -3191,7 +3191,7 @@
         <v>53.49</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>53.49</v>
+        <v>106.98</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>53.49</v>
@@ -3206,7 +3206,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>54</v>
@@ -3236,7 +3236,7 @@
         <v>34.23</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>34.23</v>
+        <v>68.46</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>34.23</v>
@@ -3251,7 +3251,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>54</v>
@@ -3279,7 +3279,7 @@
         <v>43.85</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>219.25</v>
+        <v>482.35</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>43.85</v>
@@ -3294,7 +3294,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>31</v>
@@ -3447,7 +3447,7 @@
         <v>23.51</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>141.06</v>
+        <v>211.59</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>23.51</v>
@@ -3462,7 +3462,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>27</v>
@@ -3494,7 +3494,7 @@
         <v>2.49</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>22.41</v>
+        <v>12.45</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>2.49</v>
@@ -3509,7 +3509,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>107</v>
@@ -3674,7 +3674,7 @@
         <v>1.92</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>11.52</v>
+        <v>7.68</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>1.92</v>
@@ -3689,7 +3689,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>25</v>
@@ -3719,7 +3719,7 @@
         <v>2.32</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>27.84</v>
+        <v>20.88</v>
       </c>
       <c r="G55" s="9" t="n">
         <v>2.32</v>
@@ -3734,7 +3734,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>107</v>
@@ -4016,7 +4016,7 @@
         <v>35.0</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>35.0</v>
+        <v>70.0</v>
       </c>
       <c r="G62" s="9" t="n">
         <v>35.0</v>
@@ -4031,7 +4031,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>54</v>
@@ -5579,7 +5579,7 @@
         <v>13.89</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>111.12</v>
+        <v>97.23</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>13.89</v>
@@ -5594,7 +5594,7 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>31</v>
@@ -6210,7 +6210,7 @@
         <v>37.45</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>337.05</v>
+        <v>262.15</v>
       </c>
       <c r="G114" s="9" t="n">
         <v>37.45</v>
@@ -6225,7 +6225,7 @@
         <v>0.0</v>
       </c>
       <c r="K114" s="9" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>44</v>
@@ -6380,7 +6380,7 @@
         <v>272.85</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>545.7</v>
+        <v>272.85</v>
       </c>
       <c r="G118" s="9" t="n">
         <v>272.85</v>
@@ -6395,7 +6395,7 @@
         <v>0.0</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>44</v>
@@ -6769,7 +6769,7 @@
         <v>11.76</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>11.76</v>
+        <v>47.04</v>
       </c>
       <c r="G127" s="9" t="n">
         <v>11.76</v>
@@ -6784,7 +6784,7 @@
         <v>0.0</v>
       </c>
       <c r="K127" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L127" s="7" t="s">
         <v>130</v>
@@ -6898,7 +6898,7 @@
         <v>127.33</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>127.33</v>
+        <v>254.66</v>
       </c>
       <c r="G130" s="9" t="n">
         <v>127.33</v>
@@ -6913,7 +6913,7 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>54</v>
@@ -6941,7 +6941,7 @@
         <v>127.33</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>254.66</v>
+        <v>509.32</v>
       </c>
       <c r="G131" s="9" t="n">
         <v>127.33</v>
@@ -6956,7 +6956,7 @@
         <v>0.0</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>54</v>
@@ -7029,7 +7029,7 @@
         <v>10.15</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>81.2</v>
+        <v>60.9</v>
       </c>
       <c r="G133" s="9" t="n">
         <v>10.15</v>
@@ -7044,7 +7044,7 @@
         <v>0.0</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>107</v>
@@ -7074,7 +7074,7 @@
         <v>10.68</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>32.04</v>
+        <v>42.72</v>
       </c>
       <c r="G134" s="9" t="n">
         <v>10.68</v>
@@ -7089,7 +7089,7 @@
         <v>0.0</v>
       </c>
       <c r="K134" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>130</v>
@@ -7162,7 +7162,7 @@
         <v>10.15</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>50.75</v>
+        <v>20.3</v>
       </c>
       <c r="G136" s="9" t="n">
         <v>10.15</v>
@@ -7177,7 +7177,7 @@
         <v>0.0</v>
       </c>
       <c r="K136" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>31</v>
@@ -7338,7 +7338,7 @@
         <v>12.82</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>51.28</v>
+        <v>38.46</v>
       </c>
       <c r="G140" s="9" t="n">
         <v>12.82</v>
@@ -7353,7 +7353,7 @@
         <v>0.0</v>
       </c>
       <c r="K140" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>130</v>
@@ -7643,7 +7643,7 @@
         <v>3.18</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>22.26</v>
+        <v>15.9</v>
       </c>
       <c r="G147" s="9" t="n">
         <v>3.18</v>
@@ -7658,7 +7658,7 @@
         <v>0.0</v>
       </c>
       <c r="K147" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>25</v>
@@ -7819,7 +7819,7 @@
         <v>8.55</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>34.2</v>
+        <v>25.65</v>
       </c>
       <c r="G151" s="9" t="n">
         <v>8.55</v>
@@ -7834,7 +7834,7 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L151" s="7" t="s">
         <v>25</v>
@@ -8167,7 +8167,7 @@
         <v>21.39</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>21.39</v>
+        <v>42.78</v>
       </c>
       <c r="G159" s="9" t="n">
         <v>21.39</v>
@@ -8182,7 +8182,7 @@
         <v>0.0</v>
       </c>
       <c r="K159" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>54</v>
@@ -8212,7 +8212,7 @@
         <v>6.41</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>44.87</v>
+        <v>38.46</v>
       </c>
       <c r="G160" s="9" t="n">
         <v>6.41</v>
@@ -8227,7 +8227,7 @@
         <v>0.0</v>
       </c>
       <c r="K160" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L160" s="7" t="s">
         <v>25</v>
@@ -8386,7 +8386,7 @@
         <v>1.31</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>3.93</v>
+        <v>11.79</v>
       </c>
       <c r="G164" s="9" t="n">
         <v>1.31</v>
@@ -8401,7 +8401,7 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="L164" s="7" t="s">
         <v>130</v>
@@ -8562,7 +8562,7 @@
         <v>2.32</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>11.6</v>
+        <v>9.28</v>
       </c>
       <c r="G168" s="9" t="n">
         <v>2.32</v>
@@ -8577,7 +8577,7 @@
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L168" s="7" t="s">
         <v>130</v>
@@ -8648,7 +8648,7 @@
         <v>19.25</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>57.75</v>
+        <v>77.0</v>
       </c>
       <c r="G170" s="9" t="n">
         <v>19.25</v>
@@ -8663,7 +8663,7 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L170" s="7" t="s">
         <v>130</v>
@@ -8693,7 +8693,7 @@
         <v>1.28</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="G171" s="9" t="n">
         <v>1.28</v>
@@ -8708,7 +8708,7 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L171" s="7" t="s">
         <v>25</v>
@@ -8781,7 +8781,7 @@
         <v>2.45</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>0.0</v>
+        <v>4.9</v>
       </c>
       <c r="G173" s="9" t="n">
         <v>2.45</v>
@@ -8796,7 +8796,7 @@
         <v>0.0</v>
       </c>
       <c r="K173" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L173" s="7" t="s">
         <v>25</v>
@@ -9207,14 +9207,14 @@
       <c r="D183" s="8"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10" t="n">
-        <v>52252.0</v>
+        <v>50767.37</v>
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="8"/>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="n">
-        <v>947.0</v>
+        <v>955.0</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -9231,14 +9231,14 @@
       <c r="D185" s="8"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10" t="n">
-        <v>52252.0</v>
+        <v>50767.37</v>
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="8"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10" t="n">
-        <v>947.0</v>
+        <v>955.0</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>

--- a/Shop Files/south_des_moines.xlsx
+++ b/Shop Files/south_des_moines.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/17/2025 08:14 PM</t>
+      <t>07/22/2025 07:23 AM</t>
     </r>
   </si>
   <si>
@@ -1791,7 +1791,7 @@
         <v>1.06</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>8.48</v>
+        <v>11.66</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>1.06</v>
@@ -1806,7 +1806,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -1834,7 +1834,7 @@
         <v>4.64</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>78.88</v>
+        <v>46.4</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>4.64</v>
@@ -1849,7 +1849,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -1918,7 +1918,7 @@
         <v>10.33</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>10.33</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>10.33</v>
@@ -1933,7 +1933,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -1959,7 +1959,7 @@
         <v>1.81</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>16.29</v>
+        <v>23.53</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>1.81</v>
@@ -1974,7 +1974,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>27</v>
@@ -2002,7 +2002,7 @@
         <v>6.71</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>80.52</v>
+        <v>46.97</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>6.71</v>
@@ -2017,7 +2017,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2086,7 +2086,7 @@
         <v>11.47</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>0.0</v>
+        <v>34.41</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>11.47</v>
@@ -2101,7 +2101,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>25</v>
@@ -2172,7 +2172,7 @@
         <v>437.63</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>437.63</v>
+        <v>875.26</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>437.63</v>
@@ -2187,7 +2187,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>44</v>
@@ -2260,7 +2260,7 @@
         <v>534.99</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>0.0</v>
+        <v>2139.96</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>534.99</v>
@@ -2275,7 +2275,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>44</v>
@@ -2704,7 +2704,7 @@
         <v>32.07</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>320.7</v>
+        <v>128.28</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>32.07</v>
@@ -2719,7 +2719,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>31</v>
@@ -2794,7 +2794,7 @@
         <v>1.11</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>35.52</v>
+        <v>26.64</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>1.11</v>
@@ -2809,7 +2809,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>90</v>
@@ -2839,7 +2839,7 @@
         <v>2.08</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>8.32</v>
+        <v>6.24</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>2.08</v>
@@ -2854,7 +2854,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>25</v>
@@ -2970,7 +2970,7 @@
         <v>91.58</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>183.16</v>
+        <v>91.58</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>91.58</v>
@@ -2985,7 +2985,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>54</v>
@@ -3015,7 +3015,7 @@
         <v>2.04</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>24.48</v>
+        <v>18.36</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>2.04</v>
@@ -3030,7 +3030,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>107</v>
@@ -3058,7 +3058,7 @@
         <v>1.61</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>6.44</v>
+        <v>4.83</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>1.61</v>
@@ -3073,7 +3073,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>25</v>
@@ -3279,7 +3279,7 @@
         <v>43.85</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>482.35</v>
+        <v>438.5</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>43.85</v>
@@ -3294,7 +3294,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>31</v>
@@ -3447,7 +3447,7 @@
         <v>23.51</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>211.59</v>
+        <v>352.65</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>23.51</v>
@@ -3462,7 +3462,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>27</v>
@@ -3494,7 +3494,7 @@
         <v>2.49</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>12.45</v>
+        <v>69.72</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>2.49</v>
@@ -3509,7 +3509,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>107</v>
@@ -3674,7 +3674,7 @@
         <v>1.92</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>7.68</v>
+        <v>9.6</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>1.92</v>
@@ -3689,7 +3689,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>25</v>
@@ -3719,7 +3719,7 @@
         <v>2.32</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>20.88</v>
+        <v>30.16</v>
       </c>
       <c r="G55" s="9" t="n">
         <v>2.32</v>
@@ -3734,7 +3734,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>107</v>
@@ -3805,7 +3805,7 @@
         <v>7.47</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>44.82</v>
+        <v>37.35</v>
       </c>
       <c r="G57" s="9" t="n">
         <v>7.47</v>
@@ -3820,7 +3820,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>130</v>
@@ -3889,7 +3889,7 @@
         <v>9.19</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>27.57</v>
+        <v>36.76</v>
       </c>
       <c r="G59" s="9" t="n">
         <v>9.19</v>
@@ -3904,7 +3904,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>25</v>
@@ -3932,7 +3932,7 @@
         <v>7.09</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>21.27</v>
+        <v>35.45</v>
       </c>
       <c r="G60" s="9" t="n">
         <v>7.09</v>
@@ -3947,7 +3947,7 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>25</v>
@@ -4276,7 +4276,7 @@
         <v>6.96</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>20.88</v>
+        <v>27.84</v>
       </c>
       <c r="G68" s="9" t="n">
         <v>6.96</v>
@@ -4291,7 +4291,7 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>25</v>
@@ -5149,7 +5149,7 @@
         <v>9.62</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>28.86</v>
+        <v>19.24</v>
       </c>
       <c r="G89" s="9" t="n">
         <v>9.62</v>
@@ -5164,7 +5164,7 @@
         <v>0.0</v>
       </c>
       <c r="K89" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>25</v>
@@ -5278,7 +5278,7 @@
         <v>6.94</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>62.46</v>
+        <v>55.52</v>
       </c>
       <c r="G92" s="9" t="n">
         <v>6.94</v>
@@ -5293,7 +5293,7 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>31</v>
@@ -5579,7 +5579,7 @@
         <v>13.89</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>97.23</v>
+        <v>69.45</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>13.89</v>
@@ -5594,7 +5594,7 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>31</v>
@@ -6032,7 +6032,7 @@
         <v>37.45</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>74.9</v>
+        <v>37.45</v>
       </c>
       <c r="G110" s="9" t="n">
         <v>37.45</v>
@@ -6047,7 +6047,7 @@
         <v>0.0</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>44</v>
@@ -6077,7 +6077,7 @@
         <v>37.45</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>187.25</v>
+        <v>149.8</v>
       </c>
       <c r="G111" s="9" t="n">
         <v>37.45</v>
@@ -6092,7 +6092,7 @@
         <v>0.0</v>
       </c>
       <c r="K111" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>44</v>
@@ -6210,7 +6210,7 @@
         <v>37.45</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>262.15</v>
+        <v>224.7</v>
       </c>
       <c r="G114" s="9" t="n">
         <v>37.45</v>
@@ -6225,7 +6225,7 @@
         <v>0.0</v>
       </c>
       <c r="K114" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>44</v>
@@ -6509,7 +6509,7 @@
         <v>373.43</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>0.0</v>
+        <v>746.86</v>
       </c>
       <c r="G121" s="9" t="n">
         <v>373.43</v>
@@ -6524,7 +6524,7 @@
         <v>0.0</v>
       </c>
       <c r="K121" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>44</v>
@@ -6677,7 +6677,7 @@
         <v>20.0</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>180.0</v>
+        <v>140.0</v>
       </c>
       <c r="G125" s="9" t="n">
         <v>20.0</v>
@@ -6692,7 +6692,7 @@
         <v>0.0</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>31</v>
@@ -6722,7 +6722,7 @@
         <v>10.69</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>64.14</v>
+        <v>53.45</v>
       </c>
       <c r="G126" s="9" t="n">
         <v>10.69</v>
@@ -6737,7 +6737,7 @@
         <v>0.0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>31</v>
@@ -6898,7 +6898,7 @@
         <v>127.33</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>254.66</v>
+        <v>0.0</v>
       </c>
       <c r="G130" s="9" t="n">
         <v>127.33</v>
@@ -6913,7 +6913,7 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>54</v>
@@ -6941,7 +6941,7 @@
         <v>127.33</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>509.32</v>
+        <v>381.99</v>
       </c>
       <c r="G131" s="9" t="n">
         <v>127.33</v>
@@ -6956,7 +6956,7 @@
         <v>0.0</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>54</v>
@@ -6984,7 +6984,7 @@
         <v>11.22</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>22.44</v>
+        <v>11.22</v>
       </c>
       <c r="G132" s="9" t="n">
         <v>11.22</v>
@@ -6999,7 +6999,7 @@
         <v>0.0</v>
       </c>
       <c r="K132" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>54</v>
@@ -7029,7 +7029,7 @@
         <v>10.15</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>60.9</v>
+        <v>121.8</v>
       </c>
       <c r="G133" s="9" t="n">
         <v>10.15</v>
@@ -7044,7 +7044,7 @@
         <v>0.0</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>107</v>
@@ -7338,7 +7338,7 @@
         <v>12.82</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>38.46</v>
+        <v>64.1</v>
       </c>
       <c r="G140" s="9" t="n">
         <v>12.82</v>
@@ -7353,7 +7353,7 @@
         <v>0.0</v>
       </c>
       <c r="K140" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>130</v>
@@ -7557,7 +7557,7 @@
         <v>7.46</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>29.84</v>
+        <v>37.3</v>
       </c>
       <c r="G145" s="9" t="n">
         <v>7.46</v>
@@ -7572,7 +7572,7 @@
         <v>0.0</v>
       </c>
       <c r="K145" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L145" s="7" t="s">
         <v>25</v>
@@ -7643,7 +7643,7 @@
         <v>3.18</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>15.9</v>
+        <v>12.72</v>
       </c>
       <c r="G147" s="9" t="n">
         <v>3.18</v>
@@ -7658,7 +7658,7 @@
         <v>0.0</v>
       </c>
       <c r="K147" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>25</v>
@@ -7819,7 +7819,7 @@
         <v>8.55</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>25.65</v>
+        <v>34.2</v>
       </c>
       <c r="G151" s="9" t="n">
         <v>8.55</v>
@@ -7834,7 +7834,7 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L151" s="7" t="s">
         <v>25</v>
@@ -7864,7 +7864,7 @@
         <v>8.24</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>65.92</v>
+        <v>57.68</v>
       </c>
       <c r="G152" s="9" t="n">
         <v>8.98</v>
@@ -7879,7 +7879,7 @@
         <v>0.74</v>
       </c>
       <c r="K152" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>25</v>
@@ -8386,7 +8386,7 @@
         <v>1.31</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>11.79</v>
+        <v>9.17</v>
       </c>
       <c r="G164" s="9" t="n">
         <v>1.31</v>
@@ -8401,7 +8401,7 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="L164" s="7" t="s">
         <v>130</v>
@@ -8474,7 +8474,7 @@
         <v>4.26</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>21.3</v>
+        <v>17.04</v>
       </c>
       <c r="G166" s="9" t="n">
         <v>4.26</v>
@@ -8489,7 +8489,7 @@
         <v>0.0</v>
       </c>
       <c r="K166" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L166" s="7" t="s">
         <v>130</v>
@@ -8517,7 +8517,7 @@
         <v>37.66</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>112.98</v>
+        <v>150.64</v>
       </c>
       <c r="G167" s="9" t="n">
         <v>37.66</v>
@@ -8532,7 +8532,7 @@
         <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L167" s="7" t="s">
         <v>25</v>
@@ -8562,7 +8562,7 @@
         <v>2.32</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>9.28</v>
+        <v>6.96</v>
       </c>
       <c r="G168" s="9" t="n">
         <v>2.32</v>
@@ -8577,7 +8577,7 @@
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L168" s="7" t="s">
         <v>130</v>
@@ -8648,7 +8648,7 @@
         <v>19.25</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>77.0</v>
+        <v>96.25</v>
       </c>
       <c r="G170" s="9" t="n">
         <v>19.25</v>
@@ -8663,7 +8663,7 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L170" s="7" t="s">
         <v>130</v>
@@ -8693,7 +8693,7 @@
         <v>1.28</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G171" s="9" t="n">
         <v>1.28</v>
@@ -8708,7 +8708,7 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="L171" s="7" t="s">
         <v>25</v>
@@ -8781,7 +8781,7 @@
         <v>2.45</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>4.9</v>
+        <v>9.8</v>
       </c>
       <c r="G173" s="9" t="n">
         <v>2.45</v>
@@ -8796,7 +8796,7 @@
         <v>0.0</v>
       </c>
       <c r="K173" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L173" s="7" t="s">
         <v>25</v>
@@ -8953,7 +8953,7 @@
         <v>5.34</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>21.36</v>
+        <v>10.68</v>
       </c>
       <c r="G177" s="9" t="n">
         <v>5.34</v>
@@ -8968,7 +8968,7 @@
         <v>0.0</v>
       </c>
       <c r="K177" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L177" s="7" t="s">
         <v>25</v>
@@ -8998,7 +8998,7 @@
         <v>11.76</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>47.04</v>
+        <v>58.8</v>
       </c>
       <c r="G178" s="9" t="n">
         <v>11.76</v>
@@ -9013,7 +9013,7 @@
         <v>0.0</v>
       </c>
       <c r="K178" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L178" s="7" t="s">
         <v>130</v>
@@ -9207,14 +9207,14 @@
       <c r="D183" s="8"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10" t="n">
-        <v>50767.37</v>
+        <v>53498.05</v>
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="8"/>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="n">
-        <v>955.0</v>
+        <v>975.0</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -9231,14 +9231,14 @@
       <c r="D185" s="8"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10" t="n">
-        <v>50767.37</v>
+        <v>53498.05</v>
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="8"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10" t="n">
-        <v>955.0</v>
+        <v>975.0</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>

--- a/Shop Files/south_des_moines.xlsx
+++ b/Shop Files/south_des_moines.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>07/22/2025 07:23 AM</t>
+      <t>09/23/2025 07:17 PM</t>
     </r>
   </si>
   <si>
@@ -1791,7 +1791,7 @@
         <v>1.06</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>11.66</v>
+        <v>9.54</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>1.06</v>
@@ -1806,7 +1806,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -1834,7 +1834,7 @@
         <v>4.64</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>46.4</v>
+        <v>55.68</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>4.64</v>
@@ -1849,7 +1849,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -1918,7 +1918,7 @@
         <v>10.33</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>0.0</v>
+        <v>20.66</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>10.33</v>
@@ -1933,7 +1933,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -1959,7 +1959,7 @@
         <v>1.81</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>23.53</v>
+        <v>25.34</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>1.81</v>
@@ -1974,7 +1974,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>27</v>
@@ -2002,7 +2002,7 @@
         <v>6.71</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>46.97</v>
+        <v>107.36</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>6.71</v>
@@ -2017,7 +2017,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2045,7 +2045,7 @@
         <v>40.11</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>160.44</v>
+        <v>80.22</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>40.11</v>
@@ -2060,7 +2060,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -2172,7 +2172,7 @@
         <v>437.63</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>875.26</v>
+        <v>437.63</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>437.63</v>
@@ -2187,7 +2187,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>44</v>
@@ -2393,7 +2393,7 @@
         <v>0.67</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>8.71</v>
+        <v>8.04</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>0.67</v>
@@ -2408,7 +2408,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>31</v>
@@ -2528,7 +2528,7 @@
         <v>0.6</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>0.6</v>
@@ -2543,7 +2543,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>31</v>
@@ -2704,7 +2704,7 @@
         <v>32.07</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>128.28</v>
+        <v>256.56</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>32.07</v>
@@ -2719,7 +2719,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>31</v>
@@ -2794,7 +2794,7 @@
         <v>1.11</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>26.64</v>
+        <v>49.95</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>1.11</v>
@@ -2809,7 +2809,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>90</v>
@@ -2839,7 +2839,7 @@
         <v>2.08</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>6.24</v>
+        <v>8.32</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>2.08</v>
@@ -2854,7 +2854,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>25</v>
@@ -2884,7 +2884,7 @@
         <v>4.54</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>63.56</v>
+        <v>40.86</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>4.54</v>
@@ -2899,7 +2899,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>97</v>
@@ -2970,7 +2970,7 @@
         <v>91.58</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>91.58</v>
+        <v>183.16</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>91.58</v>
@@ -2985,7 +2985,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>54</v>
@@ -3015,7 +3015,7 @@
         <v>2.04</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>18.36</v>
+        <v>20.4</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>2.04</v>
@@ -3030,7 +3030,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>107</v>
@@ -3103,7 +3103,7 @@
         <v>1.98</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>13.86</v>
+        <v>7.92</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>1.98</v>
@@ -3118,7 +3118,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>25</v>
@@ -3191,7 +3191,7 @@
         <v>53.49</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>106.98</v>
+        <v>160.47</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>53.49</v>
@@ -3206,7 +3206,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>54</v>
@@ -3279,7 +3279,7 @@
         <v>43.85</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>438.5</v>
+        <v>350.8</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>43.85</v>
@@ -3294,7 +3294,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>31</v>
@@ -3404,7 +3404,7 @@
         <v>23.53</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>117.65</v>
+        <v>94.12</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>23.53</v>
@@ -3419,7 +3419,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>130</v>
@@ -3494,7 +3494,7 @@
         <v>2.49</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>69.72</v>
+        <v>62.25</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>2.49</v>
@@ -3509,7 +3509,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>107</v>
@@ -3582,7 +3582,7 @@
         <v>5.87</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>0.0</v>
+        <v>11.74</v>
       </c>
       <c r="G52" s="9" t="n">
         <v>5.87</v>
@@ -3597,7 +3597,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>-3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>54</v>
@@ -3674,7 +3674,7 @@
         <v>1.92</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>9.6</v>
+        <v>5.76</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>1.92</v>
@@ -3689,7 +3689,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>25</v>
@@ -3719,7 +3719,7 @@
         <v>2.32</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>30.16</v>
+        <v>20.88</v>
       </c>
       <c r="G55" s="9" t="n">
         <v>2.32</v>
@@ -3734,7 +3734,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>107</v>
@@ -3932,7 +3932,7 @@
         <v>7.09</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>35.45</v>
+        <v>21.27</v>
       </c>
       <c r="G60" s="9" t="n">
         <v>7.09</v>
@@ -3947,7 +3947,7 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>25</v>
@@ -4016,7 +4016,7 @@
         <v>35.0</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>70.0</v>
+        <v>105.0</v>
       </c>
       <c r="G62" s="9" t="n">
         <v>35.0</v>
@@ -4031,7 +4031,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>54</v>
@@ -4102,7 +4102,7 @@
         <v>39.99</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>199.95</v>
+        <v>159.96</v>
       </c>
       <c r="G64" s="9" t="n">
         <v>39.99</v>
@@ -4117,7 +4117,7 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>25</v>
@@ -4145,7 +4145,7 @@
         <v>19.27</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>57.81</v>
+        <v>77.08</v>
       </c>
       <c r="G65" s="9" t="n">
         <v>19.27</v>
@@ -4160,7 +4160,7 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>25</v>
@@ -5149,7 +5149,7 @@
         <v>9.62</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>19.24</v>
+        <v>28.86</v>
       </c>
       <c r="G89" s="9" t="n">
         <v>9.62</v>
@@ -5164,7 +5164,7 @@
         <v>0.0</v>
       </c>
       <c r="K89" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>25</v>
@@ -5364,7 +5364,7 @@
         <v>235.56</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>235.56</v>
+        <v>471.12</v>
       </c>
       <c r="G94" s="9" t="n">
         <v>235.56</v>
@@ -5379,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>54</v>
@@ -5407,7 +5407,7 @@
         <v>8.54</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>68.32</v>
+        <v>51.24</v>
       </c>
       <c r="G95" s="9" t="n">
         <v>8.54</v>
@@ -5422,7 +5422,7 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>25</v>
@@ -5491,7 +5491,7 @@
         <v>6.72</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>47.04</v>
+        <v>40.32</v>
       </c>
       <c r="G97" s="9" t="n">
         <v>6.72</v>
@@ -5506,7 +5506,7 @@
         <v>0.0</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>31</v>
@@ -5579,7 +5579,7 @@
         <v>13.89</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>69.45</v>
+        <v>55.56</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>13.89</v>
@@ -5594,7 +5594,7 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>31</v>
@@ -6032,7 +6032,7 @@
         <v>37.45</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>37.45</v>
+        <v>337.05</v>
       </c>
       <c r="G110" s="9" t="n">
         <v>37.45</v>
@@ -6047,7 +6047,7 @@
         <v>0.0</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>44</v>
@@ -6296,7 +6296,7 @@
         <v>8.53</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>34.12</v>
+        <v>42.65</v>
       </c>
       <c r="G116" s="9" t="n">
         <v>8.53</v>
@@ -6311,7 +6311,7 @@
         <v>0.0</v>
       </c>
       <c r="K116" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>25</v>
@@ -6466,7 +6466,7 @@
         <v>373.43</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>746.86</v>
+        <v>373.43</v>
       </c>
       <c r="G120" s="9" t="n">
         <v>373.43</v>
@@ -6481,7 +6481,7 @@
         <v>0.0</v>
       </c>
       <c r="K120" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>44</v>
@@ -6509,7 +6509,7 @@
         <v>373.43</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>746.86</v>
+        <v>373.43</v>
       </c>
       <c r="G121" s="9" t="n">
         <v>373.43</v>
@@ -6524,7 +6524,7 @@
         <v>0.0</v>
       </c>
       <c r="K121" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>44</v>
@@ -6677,7 +6677,7 @@
         <v>20.0</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>140.0</v>
+        <v>120.0</v>
       </c>
       <c r="G125" s="9" t="n">
         <v>20.0</v>
@@ -6692,7 +6692,7 @@
         <v>0.0</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>31</v>
@@ -6722,7 +6722,7 @@
         <v>10.69</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>53.45</v>
+        <v>106.9</v>
       </c>
       <c r="G126" s="9" t="n">
         <v>10.69</v>
@@ -6737,7 +6737,7 @@
         <v>0.0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>31</v>
@@ -6855,7 +6855,7 @@
         <v>3.83</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>15.32</v>
+        <v>22.98</v>
       </c>
       <c r="G129" s="9" t="n">
         <v>3.83</v>
@@ -6870,7 +6870,7 @@
         <v>0.0</v>
       </c>
       <c r="K129" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>54</v>
@@ -6898,7 +6898,7 @@
         <v>127.33</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>0.0</v>
+        <v>127.33</v>
       </c>
       <c r="G130" s="9" t="n">
         <v>127.33</v>
@@ -6913,7 +6913,7 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>54</v>
@@ -6941,7 +6941,7 @@
         <v>127.33</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>381.99</v>
+        <v>254.66</v>
       </c>
       <c r="G131" s="9" t="n">
         <v>127.33</v>
@@ -6956,7 +6956,7 @@
         <v>0.0</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>54</v>
@@ -6984,7 +6984,7 @@
         <v>11.22</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>11.22</v>
+        <v>22.44</v>
       </c>
       <c r="G132" s="9" t="n">
         <v>11.22</v>
@@ -6999,7 +6999,7 @@
         <v>0.0</v>
       </c>
       <c r="K132" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>54</v>
@@ -7029,7 +7029,7 @@
         <v>10.15</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>121.8</v>
+        <v>152.25</v>
       </c>
       <c r="G133" s="9" t="n">
         <v>10.15</v>
@@ -7044,7 +7044,7 @@
         <v>0.0</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>107</v>
@@ -7074,7 +7074,7 @@
         <v>10.68</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>42.72</v>
+        <v>53.4</v>
       </c>
       <c r="G134" s="9" t="n">
         <v>10.68</v>
@@ -7089,7 +7089,7 @@
         <v>0.0</v>
       </c>
       <c r="K134" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>130</v>
@@ -7207,7 +7207,7 @@
         <v>0.39</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="G137" s="9" t="n">
         <v>0.39</v>
@@ -7222,7 +7222,7 @@
         <v>0.0</v>
       </c>
       <c r="K137" s="9" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="L137" s="7" t="s">
         <v>31</v>
@@ -7338,7 +7338,7 @@
         <v>12.82</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>64.1</v>
+        <v>102.56</v>
       </c>
       <c r="G140" s="9" t="n">
         <v>12.82</v>
@@ -7353,7 +7353,7 @@
         <v>0.0</v>
       </c>
       <c r="K140" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>130</v>
@@ -7600,7 +7600,7 @@
         <v>3.19</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>15.95</v>
+        <v>19.14</v>
       </c>
       <c r="G146" s="9" t="n">
         <v>3.19</v>
@@ -7615,7 +7615,7 @@
         <v>0.0</v>
       </c>
       <c r="K146" s="9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L146" s="7" t="s">
         <v>130</v>
@@ -7643,7 +7643,7 @@
         <v>3.18</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>12.72</v>
+        <v>34.98</v>
       </c>
       <c r="G147" s="9" t="n">
         <v>3.18</v>
@@ -7658,7 +7658,7 @@
         <v>0.0</v>
       </c>
       <c r="K147" s="9" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>25</v>
@@ -7776,7 +7776,7 @@
         <v>3.95</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>7.9</v>
+        <v>3.95</v>
       </c>
       <c r="G150" s="9" t="n">
         <v>3.95</v>
@@ -7791,7 +7791,7 @@
         <v>0.0</v>
       </c>
       <c r="K150" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L150" s="7" t="s">
         <v>54</v>
@@ -7819,7 +7819,7 @@
         <v>8.55</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>34.2</v>
+        <v>51.3</v>
       </c>
       <c r="G151" s="9" t="n">
         <v>8.55</v>
@@ -7834,7 +7834,7 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L151" s="7" t="s">
         <v>25</v>
@@ -7864,7 +7864,7 @@
         <v>8.24</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>57.68</v>
+        <v>49.44</v>
       </c>
       <c r="G152" s="9" t="n">
         <v>8.98</v>
@@ -7879,7 +7879,7 @@
         <v>0.74</v>
       </c>
       <c r="K152" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>25</v>
@@ -7909,7 +7909,7 @@
         <v>5.99</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>47.92</v>
+        <v>35.94</v>
       </c>
       <c r="G153" s="9" t="n">
         <v>6.59</v>
@@ -7924,7 +7924,7 @@
         <v>0.0</v>
       </c>
       <c r="K153" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>97</v>
@@ -8124,7 +8124,7 @@
         <v>10.56</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>73.92</v>
+        <v>31.68</v>
       </c>
       <c r="G158" s="9" t="n">
         <v>10.56</v>
@@ -8139,7 +8139,7 @@
         <v>0.0</v>
       </c>
       <c r="K158" s="9" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="L158" s="7" t="s">
         <v>25</v>
@@ -8167,7 +8167,7 @@
         <v>21.39</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>42.78</v>
+        <v>0.0</v>
       </c>
       <c r="G159" s="9" t="n">
         <v>21.39</v>
@@ -8182,7 +8182,7 @@
         <v>0.0</v>
       </c>
       <c r="K159" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>54</v>
@@ -8255,7 +8255,7 @@
         <v>11.76</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>23.52</v>
+        <v>35.28</v>
       </c>
       <c r="G161" s="9" t="n">
         <v>11.76</v>
@@ -8270,7 +8270,7 @@
         <v>0.0</v>
       </c>
       <c r="K161" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L161" s="7" t="s">
         <v>54</v>
@@ -8386,7 +8386,7 @@
         <v>1.31</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>9.17</v>
+        <v>7.86</v>
       </c>
       <c r="G164" s="9" t="n">
         <v>1.31</v>
@@ -8401,7 +8401,7 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L164" s="7" t="s">
         <v>130</v>
@@ -8517,7 +8517,7 @@
         <v>37.66</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>150.64</v>
+        <v>188.3</v>
       </c>
       <c r="G167" s="9" t="n">
         <v>37.66</v>
@@ -8532,7 +8532,7 @@
         <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L167" s="7" t="s">
         <v>25</v>
@@ -8562,7 +8562,7 @@
         <v>2.32</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>6.96</v>
+        <v>20.88</v>
       </c>
       <c r="G168" s="9" t="n">
         <v>2.32</v>
@@ -8577,7 +8577,7 @@
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="L168" s="7" t="s">
         <v>130</v>
@@ -8648,7 +8648,7 @@
         <v>19.25</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>96.25</v>
+        <v>57.75</v>
       </c>
       <c r="G170" s="9" t="n">
         <v>19.25</v>
@@ -8663,7 +8663,7 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L170" s="7" t="s">
         <v>130</v>
@@ -8693,7 +8693,7 @@
         <v>1.28</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>10.24</v>
+        <v>12.8</v>
       </c>
       <c r="G171" s="9" t="n">
         <v>1.28</v>
@@ -8708,7 +8708,7 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="L171" s="7" t="s">
         <v>25</v>
@@ -9041,7 +9041,7 @@
         <v>105.93</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>105.93</v>
+        <v>0.0</v>
       </c>
       <c r="G179" s="9" t="n">
         <v>105.93</v>
@@ -9056,7 +9056,7 @@
         <v>0.0</v>
       </c>
       <c r="K179" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L179" s="7" t="s">
         <v>44</v>
@@ -9084,7 +9084,7 @@
         <v>6.4</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>32.0</v>
+        <v>25.6</v>
       </c>
       <c r="G180" s="9" t="n">
         <v>6.4</v>
@@ -9099,7 +9099,7 @@
         <v>0.0</v>
       </c>
       <c r="K180" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L180" s="7" t="s">
         <v>25</v>
@@ -9207,14 +9207,14 @@
       <c r="D183" s="8"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10" t="n">
-        <v>53498.05</v>
+        <v>52979.41</v>
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="8"/>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="n">
-        <v>975.0</v>
+        <v>1041.0</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -9231,14 +9231,14 @@
       <c r="D185" s="8"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10" t="n">
-        <v>53498.05</v>
+        <v>52979.41</v>
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="8"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10" t="n">
-        <v>975.0</v>
+        <v>1041.0</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
